--- a/data/publications/orcid/export_to_manual/Uniwersytet_Mikołaja_Kopernika_w_Toruniu_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Mikołaja_Kopernika_w_Toruniu_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,364 +436,396 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Bibianna Beata Bałaj</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000000150667493</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>The impact of reading or listening to a contextual information relating to contemporary paintings on the evaluation by non-experts in the field of art</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Bibianna_Beata_Bałaj_14</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Joanna Anna Dreszer</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000000228092934 </t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Gait Analysis under Spatial Navigation Task in Elderly People—A Pilot Study</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2021-01-01</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Sensors</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Joanna_Anna_Dreszer_3</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Joanna Anna Dreszer</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000000228092934 </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Transition of the functional brain network related to increasing cognitive demands</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2017-04-22</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Human brain mapping</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Joanna_Anna_Dreszer_5</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Monika Zofia Lewandowska</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000000273543693 </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>The relationship between alpha burst activity and the default mode network.</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Acta neurobiologiae experimentalis</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Monika_Zofia_Lewandowska_9</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Rafał Milner</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3670-8265</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">Terapia EEG Biofeedback dziewięcioletniego ucznia szkoły podstawowej z zespołem nadpobudliwości psychoruchowej i ośrodkowymi zaburzeniami przetwarzania słuchowego – studium przypadku </t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2017-02-01</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Studia Pedagogiczne. Problemy społeczne, edukacyjne i artystyczne</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rafał_Milner_7</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>74</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Adam Tarnowski</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6687-8420</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Balance and functional disorders in geriatric patients after total hip prosthesis removal.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>J. Back Musculoskelet. Rehabil.</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Adam_Tarnowski_3</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>79</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Adam Tarnowski</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6687-8420</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Postural stability and functional disorders in patients with loosened hip prosthesis</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Acta of bioengineering and biomechanics</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Adam_Tarnowski_8</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>91</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Joanna Kamilla Ulatowska</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000000222215518</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Indirect and Unconscious Deception Detection: Too Soon to Give Up?</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2021-05-26</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Frontiers in Psychology</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Joanna_Kamilla_Ulatowska_1</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>98</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Joanna Kamilla Ulatowska</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000000222215518</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Factors affecting eyewitness accuracy  according to Polish and Italian law students</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Problems of Forensic Sciences / Z Zagadnień Nauk Sądowych</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Joanna_Kamilla_Ulatowska_8</t>
         </is>
